--- a/biology/Botanique/Teucrium_marum/Teucrium_marum.xlsx
+++ b/biology/Botanique/Teucrium_marum/Teucrium_marum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Germandrée marum ou Germandrée des chats, Teucrium marum, est une espèce de sous-arbrisseaux vivaces de la famille des Lamiacées.
 Originaire de la Méditerranée occidentale, cette plante est l'une des herbes aux chats, dont les feuilles et jeunes tiges froissées provoquent des comportements spectaculaires de la part des chats.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Germandrée marum est un sous-arbrisseau sempervirent. Ses feuilles sont petites, entières, ovales, élargies à la base, et pubescentes en dessous, avec un port semblable à celui du thym. Cependant, l'odeur âcre de moisi qui se dégage d'un rameau coupé permet de le différencier sans peine. Ses fleurs, apparaissant entre juillet et septembre, sont d'un rose pourpre soutenu.
 </t>
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Teucrium marum fait partie d'un complexe de trois sous-espèces: 
 T. marum subsp. marum
@@ -576,9 +592,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'instar des Nepeta, la Germandrée marum contient un terpène répulsif des insectes et pouvant causer le déclenchement de comportements sexuels chez le chat[2]. Cette molécule, le dolicholactone (un 7-methylcyclopentapyranone) est assez proche du nepetalactone produit par les Nepeta dont la célèbre cataire.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'instar des Nepeta, la Germandrée marum contient un terpène répulsif des insectes et pouvant causer le déclenchement de comportements sexuels chez le chat. Cette molécule, le dolicholactone (un 7-methylcyclopentapyranone) est assez proche du nepetalactone produit par les Nepeta dont la célèbre cataire.
 </t>
         </is>
       </c>
@@ -607,11 +625,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (9 août 2014)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (9 août 2014) :
 sous-espèce Teucrium marum subsp. marum
-Selon Tropicos                                           (9 août 2014)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Teucrium marum subsp. marum
 sous-espèce Teucrium marum subsp. occidentale Mus, Rosselló &amp; Mayol
 sous-espèce Teucrium marum subsp. spinescens (Porta) Valdés Berm.
